--- a/Documentations Techniques/valise_générique/informations_démarche (WIP).xlsx
+++ b/Documentations Techniques/valise_générique/informations_démarche (WIP).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2964454-8615-420B-8110-AAAB3B3E18AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>OSL</t>
   </si>
@@ -142,13 +143,118 @@
   </si>
   <si>
     <t>Nombre de SI destinataire par défaut</t>
+  </si>
+  <si>
+    <t>RSABEI-RSABAI</t>
+  </si>
+  <si>
+    <t>RSABEM-RSABAM</t>
+  </si>
+  <si>
+    <t>RSABEX-RSABAX</t>
+  </si>
+  <si>
+    <t>RSAFIM</t>
+  </si>
+  <si>
+    <t>RSAFIX</t>
+  </si>
+  <si>
+    <t>RSACTM</t>
+  </si>
+  <si>
+    <t>IRSACG-IRSDCG</t>
+  </si>
+  <si>
+    <t>GRO</t>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t>DSG</t>
+  </si>
+  <si>
+    <t>MSABEI</t>
+  </si>
+  <si>
+    <t>MSABEM</t>
+  </si>
+  <si>
+    <t>MSAFIM</t>
+  </si>
+  <si>
+    <t>MSABEX</t>
+  </si>
+  <si>
+    <t>RSABEI.xml</t>
+  </si>
+  <si>
+    <t>GRO.xml</t>
+  </si>
+  <si>
+    <t>SGR.xml</t>
+  </si>
+  <si>
+    <t>DSG.xml</t>
+  </si>
+  <si>
+    <t>MSABEI.xml</t>
+  </si>
+  <si>
+    <t>MSABEM.xml</t>
+  </si>
+  <si>
+    <t>MSAFIM.xml</t>
+  </si>
+  <si>
+    <t>MSABEX.xml</t>
+  </si>
+  <si>
+    <t>RSABEM.xml</t>
+  </si>
+  <si>
+    <t>RSABEX.xml</t>
+  </si>
+  <si>
+    <t>RSAFIM.xml</t>
+  </si>
+  <si>
+    <t>RSAFIX.xml</t>
+  </si>
+  <si>
+    <t>RSACTM.xml</t>
+  </si>
+  <si>
+    <t>IRSACG.xml</t>
+  </si>
+  <si>
+    <t>IRSDCG.xml</t>
+  </si>
+  <si>
+    <t>RSACAM.xml</t>
+  </si>
+  <si>
+    <t>RSAFAX.xml</t>
+  </si>
+  <si>
+    <t>RSAFAM.xml</t>
+  </si>
+  <si>
+    <t>RSABAX.xml</t>
+  </si>
+  <si>
+    <t>RSABAM.xml</t>
+  </si>
+  <si>
+    <t>RSABAI.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +265,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -199,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -209,44 +309,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,27 +376,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,59 +667,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -668,7 +731,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -680,8 +743,10 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,8 +765,12 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -720,8 +789,12 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -753,7 +826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -778,8 +851,10 @@
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -798,8 +873,12 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -815,8 +894,13 @@
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -829,9 +913,336 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
